--- a/strategy/全球购策略/data/fund_weight.xlsx
+++ b/strategy/全球购策略/data/fund_weight.xlsx
@@ -414,16 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F260"/>
+  <dimension ref="A1:F268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="B268" sqref="B268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -5621,6 +5620,166 @@
       </c>
       <c r="F260">
         <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A261" s="2">
+        <v>43768</v>
+      </c>
+      <c r="B261">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C261">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D261">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E261">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F261">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A262" s="2">
+        <v>43769</v>
+      </c>
+      <c r="B262">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C262">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D262">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E262">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F262">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A263" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B263">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C263">
+        <v>0.17543859779834739</v>
+      </c>
+      <c r="D263">
+        <v>0.17543859779834739</v>
+      </c>
+      <c r="E263">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F263">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A264" s="2">
+        <v>43773</v>
+      </c>
+      <c r="B264">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C264">
+        <v>0.17543859779834739</v>
+      </c>
+      <c r="D264">
+        <v>0.17543859779834739</v>
+      </c>
+      <c r="E264">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F264">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A265" s="2">
+        <v>43774</v>
+      </c>
+      <c r="B265">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C265">
+        <v>0.17543859779834739</v>
+      </c>
+      <c r="D265">
+        <v>0.17543859779834739</v>
+      </c>
+      <c r="E265">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F265">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A266" s="2">
+        <v>43775</v>
+      </c>
+      <c r="B266">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C266">
+        <v>0.17543859779834739</v>
+      </c>
+      <c r="D266">
+        <v>0.17543859779834739</v>
+      </c>
+      <c r="E266">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F266">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A267" s="2">
+        <v>43776</v>
+      </c>
+      <c r="B267">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C267">
+        <v>0.17543859779834739</v>
+      </c>
+      <c r="D267">
+        <v>0.17543859779834739</v>
+      </c>
+      <c r="E267">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F267">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A268" s="2">
+        <v>43777</v>
+      </c>
+      <c r="B268">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C268">
+        <v>0.17543859779834739</v>
+      </c>
+      <c r="D268">
+        <v>0.17543859779834739</v>
+      </c>
+      <c r="E268">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F268">
+        <v>0.224561408162117</v>
       </c>
     </row>
   </sheetData>

--- a/strategy/全球购策略/data/fund_weight.xlsx
+++ b/strategy/全球购策略/data/fund_weight.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F760"/>
+  <dimension ref="A1:F770"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6503,16 +6503,16 @@
         <v>0</v>
       </c>
       <c r="C306">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D306">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E306">
-        <v>0.3921568691730499</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F306">
-        <v>0.2156862765550613</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -6523,16 +6523,16 @@
         <v>0</v>
       </c>
       <c r="C307">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D307">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E307">
-        <v>0.3921568691730499</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F307">
-        <v>0.2156862765550613</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -6543,16 +6543,16 @@
         <v>0</v>
       </c>
       <c r="C308">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D308">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E308">
-        <v>0.3921568691730499</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F308">
-        <v>0.2156862765550613</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6563,16 +6563,16 @@
         <v>0</v>
       </c>
       <c r="C309">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D309">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E309">
-        <v>0.3921568691730499</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F309">
-        <v>0.2156862765550613</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -6583,16 +6583,16 @@
         <v>0</v>
       </c>
       <c r="C310">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D310">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E310">
-        <v>0.3921568691730499</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F310">
-        <v>0.2156862765550613</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6603,16 +6603,16 @@
         <v>0</v>
       </c>
       <c r="C311">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D311">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E311">
-        <v>0.3921568691730499</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F311">
-        <v>0.2156862765550613</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -6623,16 +6623,16 @@
         <v>0</v>
       </c>
       <c r="C312">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D312">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E312">
-        <v>0.3921568691730499</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F312">
-        <v>0.2156862765550613</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -6643,16 +6643,16 @@
         <v>0</v>
       </c>
       <c r="C313">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D313">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E313">
-        <v>0.3921568691730499</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F313">
-        <v>0.2156862765550613</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -6663,16 +6663,16 @@
         <v>0</v>
       </c>
       <c r="C314">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D314">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E314">
-        <v>0.3921568691730499</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F314">
-        <v>0.2156862765550613</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -6683,16 +6683,16 @@
         <v>0</v>
       </c>
       <c r="C315">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D315">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E315">
-        <v>0.3921568691730499</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F315">
-        <v>0.2156862765550613</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -6703,16 +6703,16 @@
         <v>0</v>
       </c>
       <c r="C316">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D316">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E316">
-        <v>0.3921568691730499</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F316">
-        <v>0.2156862765550613</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -6723,16 +6723,16 @@
         <v>0</v>
       </c>
       <c r="C317">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D317">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E317">
-        <v>0.3921568691730499</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F317">
-        <v>0.2156862765550613</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -6743,16 +6743,16 @@
         <v>0</v>
       </c>
       <c r="C318">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D318">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E318">
-        <v>0.3921568691730499</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F318">
-        <v>0.2156862765550613</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -6763,16 +6763,16 @@
         <v>0</v>
       </c>
       <c r="C319">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D319">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E319">
-        <v>0.3921568691730499</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F319">
-        <v>0.2156862765550613</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -6783,16 +6783,16 @@
         <v>0</v>
       </c>
       <c r="C320">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D320">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E320">
-        <v>0.3921568691730499</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F320">
-        <v>0.2156862765550613</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -6803,16 +6803,16 @@
         <v>0</v>
       </c>
       <c r="C321">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D321">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E321">
-        <v>0.3921568691730499</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F321">
-        <v>0.2156862765550613</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -6823,16 +6823,16 @@
         <v>0</v>
       </c>
       <c r="C322">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D322">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E322">
-        <v>0.3921568691730499</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F322">
-        <v>0.2156862765550613</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -6843,16 +6843,16 @@
         <v>0</v>
       </c>
       <c r="C323">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D323">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E323">
-        <v>0.3921568691730499</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F323">
-        <v>0.2156862765550613</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -6863,16 +6863,16 @@
         <v>0</v>
       </c>
       <c r="C324">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D324">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E324">
-        <v>0.3921568691730499</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F324">
-        <v>0.2156862765550613</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -6883,16 +6883,16 @@
         <v>0</v>
       </c>
       <c r="C325">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D325">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E325">
-        <v>0.3921568691730499</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F325">
-        <v>0.2156862765550613</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -6903,16 +6903,16 @@
         <v>0</v>
       </c>
       <c r="C326">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D326">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E326">
-        <v>0.3921568691730499</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F326">
-        <v>0.2156862765550613</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -6923,16 +6923,16 @@
         <v>0</v>
       </c>
       <c r="C327">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D327">
-        <v>0.196078434586525</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E327">
-        <v>0.3921568691730499</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F327">
-        <v>0.2156862765550613</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -6943,16 +6943,16 @@
         <v>0</v>
       </c>
       <c r="C328">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="D328">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="E328">
-        <v>0.4074074029922485</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F328">
-        <v>0.1851851791143417</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -6963,16 +6963,16 @@
         <v>0</v>
       </c>
       <c r="C329">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="D329">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="E329">
-        <v>0.4074074029922485</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F329">
-        <v>0.1851851791143417</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -6983,16 +6983,16 @@
         <v>0</v>
       </c>
       <c r="C330">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="D330">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="E330">
-        <v>0.4074074029922485</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F330">
-        <v>0.1851851791143417</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7003,16 +7003,16 @@
         <v>0</v>
       </c>
       <c r="C331">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="D331">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="E331">
-        <v>0.4074074029922485</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F331">
-        <v>0.1851851791143417</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7023,16 +7023,16 @@
         <v>0</v>
       </c>
       <c r="C332">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="D332">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="E332">
-        <v>0.4074074029922485</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F332">
-        <v>0.1851851791143417</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7043,16 +7043,16 @@
         <v>0</v>
       </c>
       <c r="C333">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="D333">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="E333">
-        <v>0.4074074029922485</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F333">
-        <v>0.1851851791143417</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7063,16 +7063,16 @@
         <v>0</v>
       </c>
       <c r="C334">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="D334">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="E334">
-        <v>0.4074074029922485</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F334">
-        <v>0.1851851791143417</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7083,16 +7083,16 @@
         <v>0</v>
       </c>
       <c r="C335">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="D335">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="E335">
-        <v>0.4074074029922485</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F335">
-        <v>0.1851851791143417</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7103,16 +7103,16 @@
         <v>0</v>
       </c>
       <c r="C336">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="D336">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="E336">
-        <v>0.4074074029922485</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F336">
-        <v>0.1851851791143417</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7123,16 +7123,16 @@
         <v>0</v>
       </c>
       <c r="C337">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="D337">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="E337">
-        <v>0.4074074029922485</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F337">
-        <v>0.1851851791143417</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7143,16 +7143,16 @@
         <v>0</v>
       </c>
       <c r="C338">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="D338">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="E338">
-        <v>0.4074074029922485</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F338">
-        <v>0.1851851791143417</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7163,16 +7163,16 @@
         <v>0</v>
       </c>
       <c r="C339">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="D339">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="E339">
-        <v>0.4074074029922485</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F339">
-        <v>0.1851851791143417</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7183,16 +7183,16 @@
         <v>0</v>
       </c>
       <c r="C340">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="D340">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="E340">
-        <v>0.4074074029922485</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F340">
-        <v>0.1851851791143417</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7203,16 +7203,16 @@
         <v>0</v>
       </c>
       <c r="C341">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="D341">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="E341">
-        <v>0.4074074029922485</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F341">
-        <v>0.1851851791143417</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7223,16 +7223,16 @@
         <v>0</v>
       </c>
       <c r="C342">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="D342">
-        <v>0.2037037014961242</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="E342">
-        <v>0.4074074029922485</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F342">
-        <v>0.1851851791143417</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7243,16 +7243,16 @@
         <v>0</v>
       </c>
       <c r="C343">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="D343">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="E343">
-        <v>0.261904776096344</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="F343">
-        <v>0.261904776096344</v>
+        <v>0.3055555522441864</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7263,16 +7263,16 @@
         <v>0</v>
       </c>
       <c r="C344">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="D344">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="E344">
-        <v>0.261904776096344</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="F344">
-        <v>0.261904776096344</v>
+        <v>0.3055555522441864</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7283,16 +7283,16 @@
         <v>0</v>
       </c>
       <c r="C345">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="D345">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="E345">
-        <v>0.261904776096344</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="F345">
-        <v>0.261904776096344</v>
+        <v>0.3055555522441864</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7303,16 +7303,16 @@
         <v>0</v>
       </c>
       <c r="C346">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="D346">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="E346">
-        <v>0.261904776096344</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="F346">
-        <v>0.261904776096344</v>
+        <v>0.3055555522441864</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -7323,16 +7323,16 @@
         <v>0</v>
       </c>
       <c r="C347">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="D347">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="E347">
-        <v>0.261904776096344</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="F347">
-        <v>0.261904776096344</v>
+        <v>0.3055555522441864</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -7343,16 +7343,16 @@
         <v>0</v>
       </c>
       <c r="C348">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="D348">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="E348">
-        <v>0.261904776096344</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="F348">
-        <v>0.261904776096344</v>
+        <v>0.3055555522441864</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -7363,16 +7363,16 @@
         <v>0</v>
       </c>
       <c r="C349">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="D349">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="E349">
-        <v>0.261904776096344</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="F349">
-        <v>0.261904776096344</v>
+        <v>0.3055555522441864</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -7383,16 +7383,16 @@
         <v>0</v>
       </c>
       <c r="C350">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="D350">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="E350">
-        <v>0.261904776096344</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="F350">
-        <v>0.261904776096344</v>
+        <v>0.3055555522441864</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -7403,16 +7403,16 @@
         <v>0</v>
       </c>
       <c r="C351">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="D351">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="E351">
-        <v>0.261904776096344</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="F351">
-        <v>0.261904776096344</v>
+        <v>0.3055555522441864</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -7423,16 +7423,16 @@
         <v>0</v>
       </c>
       <c r="C352">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="D352">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="E352">
-        <v>0.261904776096344</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="F352">
-        <v>0.261904776096344</v>
+        <v>0.3055555522441864</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -7443,16 +7443,16 @@
         <v>0</v>
       </c>
       <c r="C353">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="D353">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="E353">
-        <v>0.261904776096344</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="F353">
-        <v>0.261904776096344</v>
+        <v>0.3055555522441864</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -7463,16 +7463,16 @@
         <v>0</v>
       </c>
       <c r="C354">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="D354">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="E354">
-        <v>0.261904776096344</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="F354">
-        <v>0.261904776096344</v>
+        <v>0.3055555522441864</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -7483,16 +7483,16 @@
         <v>0</v>
       </c>
       <c r="C355">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="D355">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="E355">
-        <v>0.261904776096344</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="F355">
-        <v>0.261904776096344</v>
+        <v>0.3055555522441864</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -7503,16 +7503,16 @@
         <v>0</v>
       </c>
       <c r="C356">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="D356">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="E356">
-        <v>0.261904776096344</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="F356">
-        <v>0.261904776096344</v>
+        <v>0.3055555522441864</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -7523,16 +7523,16 @@
         <v>0</v>
       </c>
       <c r="C357">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="D357">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="E357">
-        <v>0.261904776096344</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="F357">
-        <v>0.261904776096344</v>
+        <v>0.3055555522441864</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -7543,16 +7543,16 @@
         <v>0</v>
       </c>
       <c r="C358">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="D358">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="E358">
-        <v>0.261904776096344</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="F358">
-        <v>0.261904776096344</v>
+        <v>0.3055555522441864</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -7563,16 +7563,16 @@
         <v>0</v>
       </c>
       <c r="C359">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="D359">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="E359">
-        <v>0.261904776096344</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="F359">
-        <v>0.261904776096344</v>
+        <v>0.3055555522441864</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -7583,16 +7583,16 @@
         <v>0</v>
       </c>
       <c r="C360">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="D360">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="E360">
-        <v>0.261904776096344</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="F360">
-        <v>0.261904776096344</v>
+        <v>0.3055555522441864</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -7603,16 +7603,16 @@
         <v>0</v>
       </c>
       <c r="C361">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="D361">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="E361">
-        <v>0.261904776096344</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="F361">
-        <v>0.261904776096344</v>
+        <v>0.3055555522441864</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -7623,16 +7623,16 @@
         <v>0</v>
       </c>
       <c r="C362">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="D362">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="E362">
-        <v>0.261904776096344</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="F362">
-        <v>0.261904776096344</v>
+        <v>0.3055555522441864</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -7643,16 +7643,16 @@
         <v>0</v>
       </c>
       <c r="C363">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="D363">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="E363">
-        <v>0.261904776096344</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="F363">
-        <v>0.261904776096344</v>
+        <v>0.3055555522441864</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -7663,16 +7663,16 @@
         <v>0</v>
       </c>
       <c r="C364">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="D364">
-        <v>0.2380952388048172</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="E364">
-        <v>0.261904776096344</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="F364">
-        <v>0.261904776096344</v>
+        <v>0.3055555522441864</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -7683,16 +7683,16 @@
         <v>0</v>
       </c>
       <c r="C365">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D365">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E365">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F365">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -7703,16 +7703,16 @@
         <v>0</v>
       </c>
       <c r="C366">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D366">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E366">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F366">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -7723,16 +7723,16 @@
         <v>0</v>
       </c>
       <c r="C367">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D367">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E367">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F367">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -7743,16 +7743,16 @@
         <v>0</v>
       </c>
       <c r="C368">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D368">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E368">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F368">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -7763,16 +7763,16 @@
         <v>0</v>
       </c>
       <c r="C369">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D369">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E369">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F369">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -7783,16 +7783,16 @@
         <v>0</v>
       </c>
       <c r="C370">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D370">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E370">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F370">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -7803,16 +7803,16 @@
         <v>0</v>
       </c>
       <c r="C371">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D371">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E371">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F371">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -7823,16 +7823,16 @@
         <v>0</v>
       </c>
       <c r="C372">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D372">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E372">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F372">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -7843,16 +7843,16 @@
         <v>0</v>
       </c>
       <c r="C373">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D373">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E373">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F373">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -7863,16 +7863,16 @@
         <v>0</v>
       </c>
       <c r="C374">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D374">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E374">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F374">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -7883,16 +7883,16 @@
         <v>0</v>
       </c>
       <c r="C375">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D375">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E375">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F375">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -7903,16 +7903,16 @@
         <v>0</v>
       </c>
       <c r="C376">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D376">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E376">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F376">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -7923,16 +7923,16 @@
         <v>0</v>
       </c>
       <c r="C377">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D377">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E377">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F377">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -7943,16 +7943,16 @@
         <v>0</v>
       </c>
       <c r="C378">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D378">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E378">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F378">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -7963,16 +7963,16 @@
         <v>0</v>
       </c>
       <c r="C379">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D379">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E379">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F379">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -7983,16 +7983,16 @@
         <v>0</v>
       </c>
       <c r="C380">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D380">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E380">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F380">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -8003,16 +8003,16 @@
         <v>0</v>
       </c>
       <c r="C381">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D381">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E381">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F381">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -8023,16 +8023,16 @@
         <v>0</v>
       </c>
       <c r="C382">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D382">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E382">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F382">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -8043,16 +8043,16 @@
         <v>0</v>
       </c>
       <c r="C383">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D383">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E383">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F383">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -8063,16 +8063,16 @@
         <v>0</v>
       </c>
       <c r="C384">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D384">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E384">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F384">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -8083,16 +8083,16 @@
         <v>0</v>
       </c>
       <c r="C385">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D385">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E385">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F385">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -8103,16 +8103,16 @@
         <v>0</v>
       </c>
       <c r="C386">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D386">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E386">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F386">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -8123,16 +8123,16 @@
         <v>0</v>
       </c>
       <c r="C387">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D387">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E387">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F387">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -8143,16 +8143,16 @@
         <v>0</v>
       </c>
       <c r="C388">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D388">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E388">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F388">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -8163,16 +8163,16 @@
         <v>0</v>
       </c>
       <c r="C389">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D389">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E389">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F389">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -8183,16 +8183,16 @@
         <v>0</v>
       </c>
       <c r="C390">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D390">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E390">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F390">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -8203,16 +8203,16 @@
         <v>0</v>
       </c>
       <c r="C391">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D391">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E391">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F391">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -8223,16 +8223,16 @@
         <v>0</v>
       </c>
       <c r="C392">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D392">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E392">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F392">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -8243,16 +8243,16 @@
         <v>0</v>
       </c>
       <c r="C393">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D393">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E393">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F393">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -8263,16 +8263,16 @@
         <v>0</v>
       </c>
       <c r="C394">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D394">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E394">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F394">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -8283,16 +8283,16 @@
         <v>0</v>
       </c>
       <c r="C395">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D395">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E395">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F395">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -8303,16 +8303,16 @@
         <v>0</v>
       </c>
       <c r="C396">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D396">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E396">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F396">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8323,16 +8323,16 @@
         <v>0</v>
       </c>
       <c r="C397">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D397">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E397">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F397">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -8343,16 +8343,16 @@
         <v>0</v>
       </c>
       <c r="C398">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D398">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E398">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F398">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -8363,16 +8363,16 @@
         <v>0</v>
       </c>
       <c r="C399">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D399">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E399">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F399">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8383,16 +8383,16 @@
         <v>0</v>
       </c>
       <c r="C400">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D400">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E400">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F400">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -8403,16 +8403,16 @@
         <v>0</v>
       </c>
       <c r="C401">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D401">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E401">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F401">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -8423,16 +8423,16 @@
         <v>0</v>
       </c>
       <c r="C402">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D402">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E402">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F402">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -8443,16 +8443,16 @@
         <v>0</v>
       </c>
       <c r="C403">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D403">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E403">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F403">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -8463,16 +8463,16 @@
         <v>0</v>
       </c>
       <c r="C404">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D404">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E404">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F404">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -8483,16 +8483,16 @@
         <v>0</v>
       </c>
       <c r="C405">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D405">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E405">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F405">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -8503,16 +8503,16 @@
         <v>0</v>
       </c>
       <c r="C406">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D406">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E406">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F406">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -8523,16 +8523,16 @@
         <v>0</v>
       </c>
       <c r="C407">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D407">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E407">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F407">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -8543,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="C408">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D408">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E408">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F408">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -8563,16 +8563,16 @@
         <v>0</v>
       </c>
       <c r="C409">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D409">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E409">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F409">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -8583,16 +8583,16 @@
         <v>0</v>
       </c>
       <c r="C410">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D410">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E410">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F410">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -8603,16 +8603,16 @@
         <v>0</v>
       </c>
       <c r="C411">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D411">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E411">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F411">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -8623,16 +8623,16 @@
         <v>0</v>
       </c>
       <c r="C412">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D412">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E412">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F412">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -8643,16 +8643,16 @@
         <v>0</v>
       </c>
       <c r="C413">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D413">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E413">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F413">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -8663,16 +8663,16 @@
         <v>0</v>
       </c>
       <c r="C414">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D414">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E414">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F414">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -8683,16 +8683,16 @@
         <v>0</v>
       </c>
       <c r="C415">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D415">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E415">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F415">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -8703,16 +8703,16 @@
         <v>0</v>
       </c>
       <c r="C416">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D416">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E416">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F416">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -8723,16 +8723,16 @@
         <v>0</v>
       </c>
       <c r="C417">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D417">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E417">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F417">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -8743,16 +8743,16 @@
         <v>0</v>
       </c>
       <c r="C418">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D418">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E418">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F418">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -8763,16 +8763,16 @@
         <v>0</v>
       </c>
       <c r="C419">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D419">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E419">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F419">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="C420">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D420">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E420">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F420">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -8803,16 +8803,16 @@
         <v>0</v>
       </c>
       <c r="C421">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D421">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E421">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F421">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -8823,16 +8823,16 @@
         <v>0</v>
       </c>
       <c r="C422">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D422">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E422">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F422">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -8843,16 +8843,16 @@
         <v>0</v>
       </c>
       <c r="C423">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D423">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E423">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F423">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -8863,16 +8863,16 @@
         <v>0</v>
       </c>
       <c r="C424">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D424">
-        <v>0.1666666716337204</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E424">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="F424">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -10963,16 +10963,16 @@
         <v>0</v>
       </c>
       <c r="C529">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="D529">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="E529">
-        <v>0.3452380895614624</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="F529">
-        <v>0.2380952388048172</v>
+        <v>0.2666666805744171</v>
       </c>
     </row>
     <row r="530" spans="1:6">
@@ -10983,16 +10983,16 @@
         <v>0</v>
       </c>
       <c r="C530">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="D530">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="E530">
-        <v>0.3452380895614624</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="F530">
-        <v>0.2380952388048172</v>
+        <v>0.2666666805744171</v>
       </c>
     </row>
     <row r="531" spans="1:6">
@@ -11003,16 +11003,16 @@
         <v>0</v>
       </c>
       <c r="C531">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="D531">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="E531">
-        <v>0.3452380895614624</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="F531">
-        <v>0.2380952388048172</v>
+        <v>0.2666666805744171</v>
       </c>
     </row>
     <row r="532" spans="1:6">
@@ -11023,16 +11023,16 @@
         <v>0</v>
       </c>
       <c r="C532">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="D532">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="E532">
-        <v>0.3452380895614624</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="F532">
-        <v>0.2380952388048172</v>
+        <v>0.2666666805744171</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -11043,16 +11043,16 @@
         <v>0</v>
       </c>
       <c r="C533">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="D533">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="E533">
-        <v>0.3452380895614624</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="F533">
-        <v>0.2380952388048172</v>
+        <v>0.2666666805744171</v>
       </c>
     </row>
     <row r="534" spans="1:6">
@@ -11063,16 +11063,16 @@
         <v>0</v>
       </c>
       <c r="C534">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="D534">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="E534">
-        <v>0.3452380895614624</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="F534">
-        <v>0.2380952388048172</v>
+        <v>0.2666666805744171</v>
       </c>
     </row>
     <row r="535" spans="1:6">
@@ -11083,16 +11083,16 @@
         <v>0</v>
       </c>
       <c r="C535">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="D535">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="E535">
-        <v>0.3452380895614624</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="F535">
-        <v>0.2380952388048172</v>
+        <v>0.2666666805744171</v>
       </c>
     </row>
     <row r="536" spans="1:6">
@@ -11103,16 +11103,16 @@
         <v>0</v>
       </c>
       <c r="C536">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="D536">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="E536">
-        <v>0.3452380895614624</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="F536">
-        <v>0.2380952388048172</v>
+        <v>0.2666666805744171</v>
       </c>
     </row>
     <row r="537" spans="1:6">
@@ -11123,16 +11123,16 @@
         <v>0</v>
       </c>
       <c r="C537">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="D537">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="E537">
-        <v>0.3452380895614624</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="F537">
-        <v>0.2380952388048172</v>
+        <v>0.2666666805744171</v>
       </c>
     </row>
     <row r="538" spans="1:6">
@@ -11143,16 +11143,16 @@
         <v>0</v>
       </c>
       <c r="C538">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="D538">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="E538">
-        <v>0.3452380895614624</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="F538">
-        <v>0.2380952388048172</v>
+        <v>0.2666666805744171</v>
       </c>
     </row>
     <row r="539" spans="1:6">
@@ -11163,16 +11163,16 @@
         <v>0</v>
       </c>
       <c r="C539">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="D539">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="E539">
-        <v>0.3452380895614624</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="F539">
-        <v>0.2380952388048172</v>
+        <v>0.2666666805744171</v>
       </c>
     </row>
     <row r="540" spans="1:6">
@@ -11183,16 +11183,16 @@
         <v>0</v>
       </c>
       <c r="C540">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="D540">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="E540">
-        <v>0.3452380895614624</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="F540">
-        <v>0.2380952388048172</v>
+        <v>0.2666666805744171</v>
       </c>
     </row>
     <row r="541" spans="1:6">
@@ -11203,16 +11203,16 @@
         <v>0</v>
       </c>
       <c r="C541">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="D541">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="E541">
-        <v>0.3452380895614624</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="F541">
-        <v>0.2380952388048172</v>
+        <v>0.2666666805744171</v>
       </c>
     </row>
     <row r="542" spans="1:6">
@@ -11223,16 +11223,16 @@
         <v>0</v>
       </c>
       <c r="C542">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="D542">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="E542">
-        <v>0.3452380895614624</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="F542">
-        <v>0.2380952388048172</v>
+        <v>0.2666666805744171</v>
       </c>
     </row>
     <row r="543" spans="1:6">
@@ -11243,16 +11243,16 @@
         <v>0</v>
       </c>
       <c r="C543">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="D543">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="E543">
-        <v>0.3452380895614624</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="F543">
-        <v>0.2380952388048172</v>
+        <v>0.2666666805744171</v>
       </c>
     </row>
     <row r="544" spans="1:6">
@@ -11263,16 +11263,16 @@
         <v>0</v>
       </c>
       <c r="C544">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="D544">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="E544">
-        <v>0.3452380895614624</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="F544">
-        <v>0.2380952388048172</v>
+        <v>0.2666666805744171</v>
       </c>
     </row>
     <row r="545" spans="1:6">
@@ -11283,16 +11283,16 @@
         <v>0</v>
       </c>
       <c r="C545">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="D545">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="E545">
-        <v>0.3452380895614624</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="F545">
-        <v>0.2380952388048172</v>
+        <v>0.2666666805744171</v>
       </c>
     </row>
     <row r="546" spans="1:6">
@@ -11303,16 +11303,16 @@
         <v>0</v>
       </c>
       <c r="C546">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="D546">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="E546">
-        <v>0.3452380895614624</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="F546">
-        <v>0.2380952388048172</v>
+        <v>0.2666666805744171</v>
       </c>
     </row>
     <row r="547" spans="1:6">
@@ -11323,16 +11323,16 @@
         <v>0</v>
       </c>
       <c r="C547">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="D547">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="E547">
-        <v>0.3452380895614624</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="F547">
-        <v>0.2380952388048172</v>
+        <v>0.2666666805744171</v>
       </c>
     </row>
     <row r="548" spans="1:6">
@@ -11343,16 +11343,16 @@
         <v>0</v>
       </c>
       <c r="C548">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="D548">
-        <v>0.2083333283662796</v>
+        <v>0.2333333343267441</v>
       </c>
       <c r="E548">
-        <v>0.3452380895614624</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="F548">
-        <v>0.2380952388048172</v>
+        <v>0.2666666805744171</v>
       </c>
     </row>
     <row r="549" spans="1:6">
@@ -11363,16 +11363,16 @@
         <v>0</v>
       </c>
       <c r="C549">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D549">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E549">
-        <v>0.3118279576301575</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F549">
-        <v>0.3118279576301575</v>
+        <v>0.3452380895614624</v>
       </c>
     </row>
     <row r="550" spans="1:6">
@@ -11383,16 +11383,16 @@
         <v>0</v>
       </c>
       <c r="C550">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D550">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E550">
-        <v>0.3118279576301575</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F550">
-        <v>0.3118279576301575</v>
+        <v>0.3452380895614624</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -11403,16 +11403,16 @@
         <v>0</v>
       </c>
       <c r="C551">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D551">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E551">
-        <v>0.3118279576301575</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F551">
-        <v>0.3118279576301575</v>
+        <v>0.3452380895614624</v>
       </c>
     </row>
     <row r="552" spans="1:6">
@@ -11423,16 +11423,16 @@
         <v>0</v>
       </c>
       <c r="C552">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D552">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E552">
-        <v>0.3118279576301575</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F552">
-        <v>0.3118279576301575</v>
+        <v>0.3452380895614624</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -11443,16 +11443,16 @@
         <v>0</v>
       </c>
       <c r="C553">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D553">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E553">
-        <v>0.3118279576301575</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F553">
-        <v>0.3118279576301575</v>
+        <v>0.3452380895614624</v>
       </c>
     </row>
     <row r="554" spans="1:6">
@@ -11463,16 +11463,16 @@
         <v>0</v>
       </c>
       <c r="C554">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D554">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E554">
-        <v>0.3118279576301575</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F554">
-        <v>0.3118279576301575</v>
+        <v>0.3452380895614624</v>
       </c>
     </row>
     <row r="555" spans="1:6">
@@ -11483,16 +11483,16 @@
         <v>0</v>
       </c>
       <c r="C555">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D555">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E555">
-        <v>0.3118279576301575</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F555">
-        <v>0.3118279576301575</v>
+        <v>0.3452380895614624</v>
       </c>
     </row>
     <row r="556" spans="1:6">
@@ -11503,16 +11503,16 @@
         <v>0</v>
       </c>
       <c r="C556">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D556">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E556">
-        <v>0.3118279576301575</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F556">
-        <v>0.3118279576301575</v>
+        <v>0.3452380895614624</v>
       </c>
     </row>
     <row r="557" spans="1:6">
@@ -11523,16 +11523,16 @@
         <v>0</v>
       </c>
       <c r="C557">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D557">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E557">
-        <v>0.3118279576301575</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F557">
-        <v>0.3118279576301575</v>
+        <v>0.3452380895614624</v>
       </c>
     </row>
     <row r="558" spans="1:6">
@@ -11543,16 +11543,16 @@
         <v>0</v>
       </c>
       <c r="C558">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D558">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E558">
-        <v>0.3118279576301575</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F558">
-        <v>0.3118279576301575</v>
+        <v>0.3452380895614624</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -11563,16 +11563,16 @@
         <v>0</v>
       </c>
       <c r="C559">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D559">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E559">
-        <v>0.3118279576301575</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F559">
-        <v>0.3118279576301575</v>
+        <v>0.3452380895614624</v>
       </c>
     </row>
     <row r="560" spans="1:6">
@@ -11583,16 +11583,16 @@
         <v>0</v>
       </c>
       <c r="C560">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D560">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E560">
-        <v>0.3118279576301575</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F560">
-        <v>0.3118279576301575</v>
+        <v>0.3452380895614624</v>
       </c>
     </row>
     <row r="561" spans="1:6">
@@ -11603,16 +11603,16 @@
         <v>0</v>
       </c>
       <c r="C561">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D561">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E561">
-        <v>0.3118279576301575</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F561">
-        <v>0.3118279576301575</v>
+        <v>0.3452380895614624</v>
       </c>
     </row>
     <row r="562" spans="1:6">
@@ -11623,16 +11623,16 @@
         <v>0</v>
       </c>
       <c r="C562">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D562">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E562">
-        <v>0.3118279576301575</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F562">
-        <v>0.3118279576301575</v>
+        <v>0.3452380895614624</v>
       </c>
     </row>
     <row r="563" spans="1:6">
@@ -11643,16 +11643,16 @@
         <v>0</v>
       </c>
       <c r="C563">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D563">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E563">
-        <v>0.3118279576301575</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F563">
-        <v>0.3118279576301575</v>
+        <v>0.3452380895614624</v>
       </c>
     </row>
     <row r="564" spans="1:6">
@@ -11663,16 +11663,16 @@
         <v>0</v>
       </c>
       <c r="C564">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D564">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E564">
-        <v>0.3118279576301575</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F564">
-        <v>0.3118279576301575</v>
+        <v>0.3452380895614624</v>
       </c>
     </row>
     <row r="565" spans="1:6">
@@ -11683,16 +11683,16 @@
         <v>0</v>
       </c>
       <c r="C565">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D565">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E565">
-        <v>0.3118279576301575</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F565">
-        <v>0.3118279576301575</v>
+        <v>0.3452380895614624</v>
       </c>
     </row>
     <row r="566" spans="1:6">
@@ -11703,16 +11703,16 @@
         <v>0</v>
       </c>
       <c r="C566">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D566">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E566">
-        <v>0.3118279576301575</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F566">
-        <v>0.3118279576301575</v>
+        <v>0.3452380895614624</v>
       </c>
     </row>
     <row r="567" spans="1:6">
@@ -11723,16 +11723,16 @@
         <v>0</v>
       </c>
       <c r="C567">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D567">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E567">
-        <v>0.3118279576301575</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F567">
-        <v>0.3118279576301575</v>
+        <v>0.3452380895614624</v>
       </c>
     </row>
     <row r="568" spans="1:6">
@@ -11743,16 +11743,16 @@
         <v>0</v>
       </c>
       <c r="C568">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D568">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E568">
-        <v>0.3118279576301575</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F568">
-        <v>0.3118279576301575</v>
+        <v>0.3452380895614624</v>
       </c>
     </row>
     <row r="569" spans="1:6">
@@ -11763,16 +11763,16 @@
         <v>0</v>
       </c>
       <c r="C569">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D569">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E569">
-        <v>0.3118279576301575</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F569">
-        <v>0.3118279576301575</v>
+        <v>0.3452380895614624</v>
       </c>
     </row>
     <row r="570" spans="1:6">
@@ -11783,16 +11783,16 @@
         <v>0</v>
       </c>
       <c r="C570">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D570">
-        <v>0.1881720423698426</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E570">
-        <v>0.3118279576301575</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="F570">
-        <v>0.3118279576301575</v>
+        <v>0.3452380895614624</v>
       </c>
     </row>
     <row r="571" spans="1:6">
@@ -14623,16 +14623,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C712">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D712">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E712">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F712">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="713" spans="1:6">
@@ -14643,16 +14643,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C713">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D713">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E713">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F713">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="714" spans="1:6">
@@ -14663,16 +14663,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C714">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D714">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E714">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F714">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="715" spans="1:6">
@@ -14683,16 +14683,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C715">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D715">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E715">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F715">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="716" spans="1:6">
@@ -14703,16 +14703,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C716">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D716">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E716">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F716">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="717" spans="1:6">
@@ -14723,16 +14723,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C717">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D717">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E717">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F717">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="718" spans="1:6">
@@ -14743,16 +14743,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C718">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D718">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E718">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F718">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="719" spans="1:6">
@@ -14763,16 +14763,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C719">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D719">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E719">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F719">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="720" spans="1:6">
@@ -14783,16 +14783,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C720">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D720">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E720">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F720">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="721" spans="1:6">
@@ -14803,16 +14803,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C721">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D721">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E721">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F721">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="722" spans="1:6">
@@ -14823,16 +14823,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C722">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D722">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E722">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F722">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="723" spans="1:6">
@@ -14843,16 +14843,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C723">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D723">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E723">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F723">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="724" spans="1:6">
@@ -14863,16 +14863,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C724">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D724">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E724">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F724">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="725" spans="1:6">
@@ -14883,16 +14883,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C725">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D725">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E725">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F725">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="726" spans="1:6">
@@ -14903,16 +14903,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C726">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D726">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E726">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F726">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="727" spans="1:6">
@@ -14923,16 +14923,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C727">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D727">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E727">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F727">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="728" spans="1:6">
@@ -14943,16 +14943,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C728">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D728">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E728">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F728">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="729" spans="1:6">
@@ -14963,16 +14963,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C729">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D729">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E729">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F729">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="730" spans="1:6">
@@ -14983,16 +14983,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C730">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D730">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E730">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F730">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="731" spans="1:6">
@@ -15003,16 +15003,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C731">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D731">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E731">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F731">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="732" spans="1:6">
@@ -15023,16 +15023,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C732">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D732">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E732">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F732">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="733" spans="1:6">
@@ -15043,16 +15043,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C733">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D733">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E733">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F733">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="734" spans="1:6">
@@ -15063,16 +15063,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C734">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D734">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E734">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F734">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="735" spans="1:6">
@@ -15083,16 +15083,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C735">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D735">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E735">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F735">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="736" spans="1:6">
@@ -15103,16 +15103,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C736">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D736">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E736">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F736">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="737" spans="1:6">
@@ -15123,16 +15123,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C737">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D737">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E737">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F737">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="738" spans="1:6">
@@ -15143,16 +15143,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C738">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D738">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E738">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F738">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="739" spans="1:6">
@@ -15163,16 +15163,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C739">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D739">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E739">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F739">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="740" spans="1:6">
@@ -15183,16 +15183,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C740">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D740">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E740">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F740">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="741" spans="1:6">
@@ -15203,16 +15203,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C741">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D741">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E741">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F741">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="742" spans="1:6">
@@ -15223,16 +15223,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C742">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D742">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E742">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F742">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="743" spans="1:6">
@@ -15243,16 +15243,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C743">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D743">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E743">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F743">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="744" spans="1:6">
@@ -15263,16 +15263,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C744">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D744">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E744">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F744">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="745" spans="1:6">
@@ -15283,16 +15283,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C745">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D745">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E745">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F745">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="746" spans="1:6">
@@ -15303,16 +15303,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C746">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D746">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E746">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F746">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="747" spans="1:6">
@@ -15323,16 +15323,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C747">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D747">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E747">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F747">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="748" spans="1:6">
@@ -15343,16 +15343,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C748">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D748">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E748">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F748">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="749" spans="1:6">
@@ -15363,16 +15363,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C749">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="D749">
-        <v>0.1515151560306549</v>
+        <v>0.1754385977983474</v>
       </c>
       <c r="E749">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="F749">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="750" spans="1:6">
@@ -15592,6 +15592,206 @@
         <v>0.224561408162117</v>
       </c>
       <c r="F760">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6">
+      <c r="A761" s="2">
+        <v>43787</v>
+      </c>
+      <c r="B761">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C761">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D761">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E761">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F761">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6">
+      <c r="A762" s="2">
+        <v>43788</v>
+      </c>
+      <c r="B762">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C762">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D762">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E762">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F762">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6">
+      <c r="A763" s="2">
+        <v>43789</v>
+      </c>
+      <c r="B763">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C763">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D763">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E763">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F763">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6">
+      <c r="A764" s="2">
+        <v>43790</v>
+      </c>
+      <c r="B764">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C764">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D764">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E764">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F764">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6">
+      <c r="A765" s="2">
+        <v>43791</v>
+      </c>
+      <c r="B765">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C765">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D765">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E765">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F765">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6">
+      <c r="A766" s="2">
+        <v>43794</v>
+      </c>
+      <c r="B766">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C766">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D766">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E766">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F766">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6">
+      <c r="A767" s="2">
+        <v>43795</v>
+      </c>
+      <c r="B767">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C767">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D767">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E767">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F767">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6">
+      <c r="A768" s="2">
+        <v>43796</v>
+      </c>
+      <c r="B768">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C768">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D768">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E768">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F768">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6">
+      <c r="A769" s="2">
+        <v>43797</v>
+      </c>
+      <c r="B769">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C769">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D769">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E769">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F769">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6">
+      <c r="A770" s="2">
+        <v>43798</v>
+      </c>
+      <c r="B770">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C770">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D770">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E770">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F770">
         <v>0.224561408162117</v>
       </c>
     </row>

--- a/strategy/全球购策略/data/fund_weight.xlsx
+++ b/strategy/全球购策略/data/fund_weight.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F770"/>
+  <dimension ref="A1:F835"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6503,16 +6503,16 @@
         <v>0</v>
       </c>
       <c r="C306">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D306">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E306">
-        <v>0.261904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="F306">
-        <v>0.261904776096344</v>
+        <v>0.2156862765550613</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -6523,16 +6523,16 @@
         <v>0</v>
       </c>
       <c r="C307">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D307">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E307">
-        <v>0.261904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="F307">
-        <v>0.261904776096344</v>
+        <v>0.2156862765550613</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -6543,16 +6543,16 @@
         <v>0</v>
       </c>
       <c r="C308">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D308">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E308">
-        <v>0.261904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="F308">
-        <v>0.261904776096344</v>
+        <v>0.2156862765550613</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6563,16 +6563,16 @@
         <v>0</v>
       </c>
       <c r="C309">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D309">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E309">
-        <v>0.261904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="F309">
-        <v>0.261904776096344</v>
+        <v>0.2156862765550613</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -6583,16 +6583,16 @@
         <v>0</v>
       </c>
       <c r="C310">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D310">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E310">
-        <v>0.261904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="F310">
-        <v>0.261904776096344</v>
+        <v>0.2156862765550613</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6603,16 +6603,16 @@
         <v>0</v>
       </c>
       <c r="C311">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D311">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E311">
-        <v>0.261904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="F311">
-        <v>0.261904776096344</v>
+        <v>0.2156862765550613</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -6623,16 +6623,16 @@
         <v>0</v>
       </c>
       <c r="C312">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D312">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E312">
-        <v>0.261904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="F312">
-        <v>0.261904776096344</v>
+        <v>0.2156862765550613</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -6643,16 +6643,16 @@
         <v>0</v>
       </c>
       <c r="C313">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D313">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E313">
-        <v>0.261904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="F313">
-        <v>0.261904776096344</v>
+        <v>0.2156862765550613</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -6663,16 +6663,16 @@
         <v>0</v>
       </c>
       <c r="C314">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D314">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E314">
-        <v>0.261904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="F314">
-        <v>0.261904776096344</v>
+        <v>0.2156862765550613</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -6683,16 +6683,16 @@
         <v>0</v>
       </c>
       <c r="C315">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D315">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E315">
-        <v>0.261904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="F315">
-        <v>0.261904776096344</v>
+        <v>0.2156862765550613</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -6703,16 +6703,16 @@
         <v>0</v>
       </c>
       <c r="C316">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D316">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E316">
-        <v>0.261904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="F316">
-        <v>0.261904776096344</v>
+        <v>0.2156862765550613</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -6723,16 +6723,16 @@
         <v>0</v>
       </c>
       <c r="C317">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D317">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E317">
-        <v>0.261904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="F317">
-        <v>0.261904776096344</v>
+        <v>0.2156862765550613</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -6743,16 +6743,16 @@
         <v>0</v>
       </c>
       <c r="C318">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D318">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E318">
-        <v>0.261904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="F318">
-        <v>0.261904776096344</v>
+        <v>0.2156862765550613</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -6763,16 +6763,16 @@
         <v>0</v>
       </c>
       <c r="C319">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D319">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E319">
-        <v>0.261904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="F319">
-        <v>0.261904776096344</v>
+        <v>0.2156862765550613</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -6783,16 +6783,16 @@
         <v>0</v>
       </c>
       <c r="C320">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D320">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E320">
-        <v>0.261904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="F320">
-        <v>0.261904776096344</v>
+        <v>0.2156862765550613</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -6803,16 +6803,16 @@
         <v>0</v>
       </c>
       <c r="C321">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D321">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E321">
-        <v>0.261904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="F321">
-        <v>0.261904776096344</v>
+        <v>0.2156862765550613</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -6823,16 +6823,16 @@
         <v>0</v>
       </c>
       <c r="C322">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D322">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E322">
-        <v>0.261904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="F322">
-        <v>0.261904776096344</v>
+        <v>0.2156862765550613</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -6843,16 +6843,16 @@
         <v>0</v>
       </c>
       <c r="C323">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D323">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E323">
-        <v>0.261904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="F323">
-        <v>0.261904776096344</v>
+        <v>0.2156862765550613</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -6863,16 +6863,16 @@
         <v>0</v>
       </c>
       <c r="C324">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D324">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E324">
-        <v>0.261904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="F324">
-        <v>0.261904776096344</v>
+        <v>0.2156862765550613</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -6883,16 +6883,16 @@
         <v>0</v>
       </c>
       <c r="C325">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D325">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E325">
-        <v>0.261904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="F325">
-        <v>0.261904776096344</v>
+        <v>0.2156862765550613</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -6903,16 +6903,16 @@
         <v>0</v>
       </c>
       <c r="C326">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D326">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E326">
-        <v>0.261904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="F326">
-        <v>0.261904776096344</v>
+        <v>0.2156862765550613</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -6923,16 +6923,16 @@
         <v>0</v>
       </c>
       <c r="C327">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="D327">
-        <v>0.2380952388048172</v>
+        <v>0.196078434586525</v>
       </c>
       <c r="E327">
-        <v>0.261904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="F327">
-        <v>0.261904776096344</v>
+        <v>0.2156862765550613</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -6943,16 +6943,16 @@
         <v>0</v>
       </c>
       <c r="C328">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="D328">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="E328">
-        <v>0.2380952388048172</v>
+        <v>0.4074074029922485</v>
       </c>
       <c r="F328">
-        <v>0.2380952388048172</v>
+        <v>0.1851851791143417</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -6963,16 +6963,16 @@
         <v>0</v>
       </c>
       <c r="C329">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="D329">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="E329">
-        <v>0.2380952388048172</v>
+        <v>0.4074074029922485</v>
       </c>
       <c r="F329">
-        <v>0.2380952388048172</v>
+        <v>0.1851851791143417</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -6983,16 +6983,16 @@
         <v>0</v>
       </c>
       <c r="C330">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="D330">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="E330">
-        <v>0.2380952388048172</v>
+        <v>0.4074074029922485</v>
       </c>
       <c r="F330">
-        <v>0.2380952388048172</v>
+        <v>0.1851851791143417</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7003,16 +7003,16 @@
         <v>0</v>
       </c>
       <c r="C331">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="D331">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="E331">
-        <v>0.2380952388048172</v>
+        <v>0.4074074029922485</v>
       </c>
       <c r="F331">
-        <v>0.2380952388048172</v>
+        <v>0.1851851791143417</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7023,16 +7023,16 @@
         <v>0</v>
       </c>
       <c r="C332">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="D332">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="E332">
-        <v>0.2380952388048172</v>
+        <v>0.4074074029922485</v>
       </c>
       <c r="F332">
-        <v>0.2380952388048172</v>
+        <v>0.1851851791143417</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7043,16 +7043,16 @@
         <v>0</v>
       </c>
       <c r="C333">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="D333">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="E333">
-        <v>0.2380952388048172</v>
+        <v>0.4074074029922485</v>
       </c>
       <c r="F333">
-        <v>0.2380952388048172</v>
+        <v>0.1851851791143417</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7063,16 +7063,16 @@
         <v>0</v>
       </c>
       <c r="C334">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="D334">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="E334">
-        <v>0.2380952388048172</v>
+        <v>0.4074074029922485</v>
       </c>
       <c r="F334">
-        <v>0.2380952388048172</v>
+        <v>0.1851851791143417</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7083,16 +7083,16 @@
         <v>0</v>
       </c>
       <c r="C335">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="D335">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="E335">
-        <v>0.2380952388048172</v>
+        <v>0.4074074029922485</v>
       </c>
       <c r="F335">
-        <v>0.2380952388048172</v>
+        <v>0.1851851791143417</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7103,16 +7103,16 @@
         <v>0</v>
       </c>
       <c r="C336">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="D336">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="E336">
-        <v>0.2380952388048172</v>
+        <v>0.4074074029922485</v>
       </c>
       <c r="F336">
-        <v>0.2380952388048172</v>
+        <v>0.1851851791143417</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7123,16 +7123,16 @@
         <v>0</v>
       </c>
       <c r="C337">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="D337">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="E337">
-        <v>0.2380952388048172</v>
+        <v>0.4074074029922485</v>
       </c>
       <c r="F337">
-        <v>0.2380952388048172</v>
+        <v>0.1851851791143417</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7143,16 +7143,16 @@
         <v>0</v>
       </c>
       <c r="C338">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="D338">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="E338">
-        <v>0.2380952388048172</v>
+        <v>0.4074074029922485</v>
       </c>
       <c r="F338">
-        <v>0.2380952388048172</v>
+        <v>0.1851851791143417</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7163,16 +7163,16 @@
         <v>0</v>
       </c>
       <c r="C339">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="D339">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="E339">
-        <v>0.2380952388048172</v>
+        <v>0.4074074029922485</v>
       </c>
       <c r="F339">
-        <v>0.2380952388048172</v>
+        <v>0.1851851791143417</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7183,16 +7183,16 @@
         <v>0</v>
       </c>
       <c r="C340">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="D340">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="E340">
-        <v>0.2380952388048172</v>
+        <v>0.4074074029922485</v>
       </c>
       <c r="F340">
-        <v>0.2380952388048172</v>
+        <v>0.1851851791143417</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7203,16 +7203,16 @@
         <v>0</v>
       </c>
       <c r="C341">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="D341">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="E341">
-        <v>0.2380952388048172</v>
+        <v>0.4074074029922485</v>
       </c>
       <c r="F341">
-        <v>0.2380952388048172</v>
+        <v>0.1851851791143417</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7223,16 +7223,16 @@
         <v>0</v>
       </c>
       <c r="C342">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="D342">
-        <v>0.261904776096344</v>
+        <v>0.2037037014961242</v>
       </c>
       <c r="E342">
-        <v>0.2380952388048172</v>
+        <v>0.4074074029922485</v>
       </c>
       <c r="F342">
-        <v>0.2380952388048172</v>
+        <v>0.1851851791143417</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7243,16 +7243,16 @@
         <v>0</v>
       </c>
       <c r="C343">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D343">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E343">
-        <v>0.1388888955116272</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F343">
-        <v>0.3055555522441864</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7263,16 +7263,16 @@
         <v>0</v>
       </c>
       <c r="C344">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D344">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E344">
-        <v>0.1388888955116272</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F344">
-        <v>0.3055555522441864</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7283,16 +7283,16 @@
         <v>0</v>
       </c>
       <c r="C345">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D345">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E345">
-        <v>0.1388888955116272</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F345">
-        <v>0.3055555522441864</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7303,16 +7303,16 @@
         <v>0</v>
       </c>
       <c r="C346">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D346">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E346">
-        <v>0.1388888955116272</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F346">
-        <v>0.3055555522441864</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -7323,16 +7323,16 @@
         <v>0</v>
       </c>
       <c r="C347">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D347">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E347">
-        <v>0.1388888955116272</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F347">
-        <v>0.3055555522441864</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -7343,16 +7343,16 @@
         <v>0</v>
       </c>
       <c r="C348">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D348">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E348">
-        <v>0.1388888955116272</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F348">
-        <v>0.3055555522441864</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -7363,16 +7363,16 @@
         <v>0</v>
       </c>
       <c r="C349">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D349">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E349">
-        <v>0.1388888955116272</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F349">
-        <v>0.3055555522441864</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -7383,16 +7383,16 @@
         <v>0</v>
       </c>
       <c r="C350">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D350">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E350">
-        <v>0.1388888955116272</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F350">
-        <v>0.3055555522441864</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -7403,16 +7403,16 @@
         <v>0</v>
       </c>
       <c r="C351">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D351">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E351">
-        <v>0.1388888955116272</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F351">
-        <v>0.3055555522441864</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -7423,16 +7423,16 @@
         <v>0</v>
       </c>
       <c r="C352">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D352">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E352">
-        <v>0.1388888955116272</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F352">
-        <v>0.3055555522441864</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -7443,16 +7443,16 @@
         <v>0</v>
       </c>
       <c r="C353">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D353">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E353">
-        <v>0.1388888955116272</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F353">
-        <v>0.3055555522441864</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -7463,16 +7463,16 @@
         <v>0</v>
       </c>
       <c r="C354">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D354">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E354">
-        <v>0.1388888955116272</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F354">
-        <v>0.3055555522441864</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -7483,16 +7483,16 @@
         <v>0</v>
       </c>
       <c r="C355">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D355">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E355">
-        <v>0.1388888955116272</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F355">
-        <v>0.3055555522441864</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -7503,16 +7503,16 @@
         <v>0</v>
       </c>
       <c r="C356">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D356">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E356">
-        <v>0.1388888955116272</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F356">
-        <v>0.3055555522441864</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -7523,16 +7523,16 @@
         <v>0</v>
       </c>
       <c r="C357">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D357">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E357">
-        <v>0.1388888955116272</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F357">
-        <v>0.3055555522441864</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -7543,16 +7543,16 @@
         <v>0</v>
       </c>
       <c r="C358">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D358">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E358">
-        <v>0.1388888955116272</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F358">
-        <v>0.3055555522441864</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -7563,16 +7563,16 @@
         <v>0</v>
       </c>
       <c r="C359">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D359">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E359">
-        <v>0.1388888955116272</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F359">
-        <v>0.3055555522441864</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -7583,16 +7583,16 @@
         <v>0</v>
       </c>
       <c r="C360">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D360">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E360">
-        <v>0.1388888955116272</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F360">
-        <v>0.3055555522441864</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -7603,16 +7603,16 @@
         <v>0</v>
       </c>
       <c r="C361">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D361">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E361">
-        <v>0.1388888955116272</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F361">
-        <v>0.3055555522441864</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -7623,16 +7623,16 @@
         <v>0</v>
       </c>
       <c r="C362">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D362">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E362">
-        <v>0.1388888955116272</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F362">
-        <v>0.3055555522441864</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -7643,16 +7643,16 @@
         <v>0</v>
       </c>
       <c r="C363">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D363">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E363">
-        <v>0.1388888955116272</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F363">
-        <v>0.3055555522441864</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -7663,16 +7663,16 @@
         <v>0</v>
       </c>
       <c r="C364">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D364">
-        <v>0.2777777910232544</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E364">
-        <v>0.1388888955116272</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="F364">
-        <v>0.3055555522441864</v>
+        <v>0.261904776096344</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -7683,16 +7683,16 @@
         <v>0</v>
       </c>
       <c r="C365">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D365">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E365">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F365">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -7703,16 +7703,16 @@
         <v>0</v>
       </c>
       <c r="C366">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D366">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E366">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F366">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -7723,16 +7723,16 @@
         <v>0</v>
       </c>
       <c r="C367">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D367">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E367">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F367">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -7743,16 +7743,16 @@
         <v>0</v>
       </c>
       <c r="C368">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D368">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E368">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F368">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -7763,16 +7763,16 @@
         <v>0</v>
       </c>
       <c r="C369">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D369">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E369">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F369">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -7783,16 +7783,16 @@
         <v>0</v>
       </c>
       <c r="C370">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D370">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E370">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F370">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -7803,16 +7803,16 @@
         <v>0</v>
       </c>
       <c r="C371">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D371">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E371">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F371">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -7823,16 +7823,16 @@
         <v>0</v>
       </c>
       <c r="C372">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D372">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E372">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F372">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -7843,16 +7843,16 @@
         <v>0</v>
       </c>
       <c r="C373">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D373">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E373">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F373">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -7863,16 +7863,16 @@
         <v>0</v>
       </c>
       <c r="C374">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D374">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E374">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F374">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -7883,16 +7883,16 @@
         <v>0</v>
       </c>
       <c r="C375">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D375">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E375">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F375">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -7903,16 +7903,16 @@
         <v>0</v>
       </c>
       <c r="C376">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D376">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E376">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F376">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -7923,16 +7923,16 @@
         <v>0</v>
       </c>
       <c r="C377">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D377">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E377">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F377">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -7943,16 +7943,16 @@
         <v>0</v>
       </c>
       <c r="C378">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D378">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E378">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F378">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -7963,16 +7963,16 @@
         <v>0</v>
       </c>
       <c r="C379">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D379">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E379">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F379">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -7983,16 +7983,16 @@
         <v>0</v>
       </c>
       <c r="C380">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D380">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E380">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F380">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -8003,16 +8003,16 @@
         <v>0</v>
       </c>
       <c r="C381">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D381">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E381">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F381">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -8023,16 +8023,16 @@
         <v>0</v>
       </c>
       <c r="C382">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D382">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E382">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F382">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -8043,16 +8043,16 @@
         <v>0</v>
       </c>
       <c r="C383">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D383">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E383">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F383">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -8063,16 +8063,16 @@
         <v>0</v>
       </c>
       <c r="C384">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D384">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E384">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F384">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -8083,16 +8083,16 @@
         <v>0</v>
       </c>
       <c r="C385">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D385">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E385">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F385">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -8103,16 +8103,16 @@
         <v>0</v>
       </c>
       <c r="C386">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D386">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E386">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F386">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -8123,16 +8123,16 @@
         <v>0</v>
       </c>
       <c r="C387">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D387">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E387">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F387">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -8143,16 +8143,16 @@
         <v>0</v>
       </c>
       <c r="C388">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D388">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E388">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F388">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -8163,16 +8163,16 @@
         <v>0</v>
       </c>
       <c r="C389">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D389">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E389">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F389">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -8183,16 +8183,16 @@
         <v>0</v>
       </c>
       <c r="C390">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D390">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E390">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F390">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -8203,16 +8203,16 @@
         <v>0</v>
       </c>
       <c r="C391">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D391">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E391">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F391">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -8223,16 +8223,16 @@
         <v>0</v>
       </c>
       <c r="C392">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D392">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E392">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F392">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -8243,16 +8243,16 @@
         <v>0</v>
       </c>
       <c r="C393">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D393">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E393">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F393">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -8263,16 +8263,16 @@
         <v>0</v>
       </c>
       <c r="C394">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D394">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E394">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F394">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -8283,16 +8283,16 @@
         <v>0</v>
       </c>
       <c r="C395">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D395">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E395">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F395">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -8303,16 +8303,16 @@
         <v>0</v>
       </c>
       <c r="C396">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D396">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E396">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F396">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8323,16 +8323,16 @@
         <v>0</v>
       </c>
       <c r="C397">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D397">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E397">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F397">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -8343,16 +8343,16 @@
         <v>0</v>
       </c>
       <c r="C398">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D398">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E398">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F398">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -8363,16 +8363,16 @@
         <v>0</v>
       </c>
       <c r="C399">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D399">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E399">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F399">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8383,16 +8383,16 @@
         <v>0</v>
       </c>
       <c r="C400">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D400">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E400">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F400">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -8403,16 +8403,16 @@
         <v>0</v>
       </c>
       <c r="C401">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D401">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E401">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F401">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -8423,16 +8423,16 @@
         <v>0</v>
       </c>
       <c r="C402">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D402">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E402">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F402">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -8443,16 +8443,16 @@
         <v>0</v>
       </c>
       <c r="C403">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D403">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E403">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F403">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -8463,16 +8463,16 @@
         <v>0</v>
       </c>
       <c r="C404">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D404">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E404">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F404">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -8483,16 +8483,16 @@
         <v>0</v>
       </c>
       <c r="C405">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D405">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E405">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F405">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -8503,16 +8503,16 @@
         <v>0</v>
       </c>
       <c r="C406">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D406">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E406">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F406">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -8523,16 +8523,16 @@
         <v>0</v>
       </c>
       <c r="C407">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D407">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E407">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F407">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -8543,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="C408">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D408">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E408">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F408">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -8563,16 +8563,16 @@
         <v>0</v>
       </c>
       <c r="C409">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D409">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E409">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F409">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -8583,16 +8583,16 @@
         <v>0</v>
       </c>
       <c r="C410">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D410">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E410">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F410">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -8603,16 +8603,16 @@
         <v>0</v>
       </c>
       <c r="C411">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D411">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E411">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F411">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -8623,16 +8623,16 @@
         <v>0</v>
       </c>
       <c r="C412">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D412">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E412">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F412">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -8643,16 +8643,16 @@
         <v>0</v>
       </c>
       <c r="C413">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D413">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E413">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F413">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -8663,16 +8663,16 @@
         <v>0</v>
       </c>
       <c r="C414">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D414">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E414">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F414">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -8683,16 +8683,16 @@
         <v>0</v>
       </c>
       <c r="C415">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D415">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E415">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F415">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -8703,16 +8703,16 @@
         <v>0</v>
       </c>
       <c r="C416">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D416">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E416">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F416">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -8723,16 +8723,16 @@
         <v>0</v>
       </c>
       <c r="C417">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D417">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E417">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F417">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -8743,16 +8743,16 @@
         <v>0</v>
       </c>
       <c r="C418">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D418">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E418">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F418">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -8763,16 +8763,16 @@
         <v>0</v>
       </c>
       <c r="C419">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D419">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E419">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F419">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="C420">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D420">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E420">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F420">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -8803,16 +8803,16 @@
         <v>0</v>
       </c>
       <c r="C421">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D421">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E421">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F421">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -8823,16 +8823,16 @@
         <v>0</v>
       </c>
       <c r="C422">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D422">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E422">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F422">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -8843,16 +8843,16 @@
         <v>0</v>
       </c>
       <c r="C423">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D423">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E423">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F423">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -8863,16 +8863,16 @@
         <v>0</v>
       </c>
       <c r="C424">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="D424">
-        <v>0.196078434586525</v>
+        <v>0.1666666716337204</v>
       </c>
       <c r="E424">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F424">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -10963,16 +10963,16 @@
         <v>0</v>
       </c>
       <c r="C529">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D529">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E529">
-        <v>0.2666666805744171</v>
+        <v>0.3452380895614624</v>
       </c>
       <c r="F529">
-        <v>0.2666666805744171</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="530" spans="1:6">
@@ -10983,16 +10983,16 @@
         <v>0</v>
       </c>
       <c r="C530">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D530">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E530">
-        <v>0.2666666805744171</v>
+        <v>0.3452380895614624</v>
       </c>
       <c r="F530">
-        <v>0.2666666805744171</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="531" spans="1:6">
@@ -11003,16 +11003,16 @@
         <v>0</v>
       </c>
       <c r="C531">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D531">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E531">
-        <v>0.2666666805744171</v>
+        <v>0.3452380895614624</v>
       </c>
       <c r="F531">
-        <v>0.2666666805744171</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="532" spans="1:6">
@@ -11023,16 +11023,16 @@
         <v>0</v>
       </c>
       <c r="C532">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D532">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E532">
-        <v>0.2666666805744171</v>
+        <v>0.3452380895614624</v>
       </c>
       <c r="F532">
-        <v>0.2666666805744171</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -11043,16 +11043,16 @@
         <v>0</v>
       </c>
       <c r="C533">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D533">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E533">
-        <v>0.2666666805744171</v>
+        <v>0.3452380895614624</v>
       </c>
       <c r="F533">
-        <v>0.2666666805744171</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="534" spans="1:6">
@@ -11063,16 +11063,16 @@
         <v>0</v>
       </c>
       <c r="C534">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D534">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E534">
-        <v>0.2666666805744171</v>
+        <v>0.3452380895614624</v>
       </c>
       <c r="F534">
-        <v>0.2666666805744171</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="535" spans="1:6">
@@ -11083,16 +11083,16 @@
         <v>0</v>
       </c>
       <c r="C535">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D535">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E535">
-        <v>0.2666666805744171</v>
+        <v>0.3452380895614624</v>
       </c>
       <c r="F535">
-        <v>0.2666666805744171</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="536" spans="1:6">
@@ -11103,16 +11103,16 @@
         <v>0</v>
       </c>
       <c r="C536">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D536">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E536">
-        <v>0.2666666805744171</v>
+        <v>0.3452380895614624</v>
       </c>
       <c r="F536">
-        <v>0.2666666805744171</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="537" spans="1:6">
@@ -11123,16 +11123,16 @@
         <v>0</v>
       </c>
       <c r="C537">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D537">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E537">
-        <v>0.2666666805744171</v>
+        <v>0.3452380895614624</v>
       </c>
       <c r="F537">
-        <v>0.2666666805744171</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="538" spans="1:6">
@@ -11143,16 +11143,16 @@
         <v>0</v>
       </c>
       <c r="C538">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D538">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E538">
-        <v>0.2666666805744171</v>
+        <v>0.3452380895614624</v>
       </c>
       <c r="F538">
-        <v>0.2666666805744171</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="539" spans="1:6">
@@ -11163,16 +11163,16 @@
         <v>0</v>
       </c>
       <c r="C539">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D539">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E539">
-        <v>0.2666666805744171</v>
+        <v>0.3452380895614624</v>
       </c>
       <c r="F539">
-        <v>0.2666666805744171</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="540" spans="1:6">
@@ -11183,16 +11183,16 @@
         <v>0</v>
       </c>
       <c r="C540">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D540">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E540">
-        <v>0.2666666805744171</v>
+        <v>0.3452380895614624</v>
       </c>
       <c r="F540">
-        <v>0.2666666805744171</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="541" spans="1:6">
@@ -11203,16 +11203,16 @@
         <v>0</v>
       </c>
       <c r="C541">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D541">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E541">
-        <v>0.2666666805744171</v>
+        <v>0.3452380895614624</v>
       </c>
       <c r="F541">
-        <v>0.2666666805744171</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="542" spans="1:6">
@@ -11223,16 +11223,16 @@
         <v>0</v>
       </c>
       <c r="C542">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D542">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E542">
-        <v>0.2666666805744171</v>
+        <v>0.3452380895614624</v>
       </c>
       <c r="F542">
-        <v>0.2666666805744171</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="543" spans="1:6">
@@ -11243,16 +11243,16 @@
         <v>0</v>
       </c>
       <c r="C543">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D543">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E543">
-        <v>0.2666666805744171</v>
+        <v>0.3452380895614624</v>
       </c>
       <c r="F543">
-        <v>0.2666666805744171</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="544" spans="1:6">
@@ -11263,16 +11263,16 @@
         <v>0</v>
       </c>
       <c r="C544">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D544">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E544">
-        <v>0.2666666805744171</v>
+        <v>0.3452380895614624</v>
       </c>
       <c r="F544">
-        <v>0.2666666805744171</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="545" spans="1:6">
@@ -11283,16 +11283,16 @@
         <v>0</v>
       </c>
       <c r="C545">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D545">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E545">
-        <v>0.2666666805744171</v>
+        <v>0.3452380895614624</v>
       </c>
       <c r="F545">
-        <v>0.2666666805744171</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="546" spans="1:6">
@@ -11303,16 +11303,16 @@
         <v>0</v>
       </c>
       <c r="C546">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D546">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E546">
-        <v>0.2666666805744171</v>
+        <v>0.3452380895614624</v>
       </c>
       <c r="F546">
-        <v>0.2666666805744171</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="547" spans="1:6">
@@ -11323,16 +11323,16 @@
         <v>0</v>
       </c>
       <c r="C547">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D547">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E547">
-        <v>0.2666666805744171</v>
+        <v>0.3452380895614624</v>
       </c>
       <c r="F547">
-        <v>0.2666666805744171</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="548" spans="1:6">
@@ -11343,16 +11343,16 @@
         <v>0</v>
       </c>
       <c r="C548">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D548">
-        <v>0.2333333343267441</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="E548">
-        <v>0.2666666805744171</v>
+        <v>0.3452380895614624</v>
       </c>
       <c r="F548">
-        <v>0.2666666805744171</v>
+        <v>0.2380952388048172</v>
       </c>
     </row>
     <row r="549" spans="1:6">
@@ -11363,16 +11363,16 @@
         <v>0</v>
       </c>
       <c r="C549">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="D549">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="E549">
-        <v>0.2380952388048172</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="F549">
-        <v>0.3452380895614624</v>
+        <v>0.3118279576301575</v>
       </c>
     </row>
     <row r="550" spans="1:6">
@@ -11383,16 +11383,16 @@
         <v>0</v>
       </c>
       <c r="C550">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="D550">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="E550">
-        <v>0.2380952388048172</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="F550">
-        <v>0.3452380895614624</v>
+        <v>0.3118279576301575</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -11403,16 +11403,16 @@
         <v>0</v>
       </c>
       <c r="C551">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="D551">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="E551">
-        <v>0.2380952388048172</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="F551">
-        <v>0.3452380895614624</v>
+        <v>0.3118279576301575</v>
       </c>
     </row>
     <row r="552" spans="1:6">
@@ -11423,16 +11423,16 @@
         <v>0</v>
       </c>
       <c r="C552">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="D552">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="E552">
-        <v>0.2380952388048172</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="F552">
-        <v>0.3452380895614624</v>
+        <v>0.3118279576301575</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -11443,16 +11443,16 @@
         <v>0</v>
       </c>
       <c r="C553">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="D553">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="E553">
-        <v>0.2380952388048172</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="F553">
-        <v>0.3452380895614624</v>
+        <v>0.3118279576301575</v>
       </c>
     </row>
     <row r="554" spans="1:6">
@@ -11463,16 +11463,16 @@
         <v>0</v>
       </c>
       <c r="C554">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="D554">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="E554">
-        <v>0.2380952388048172</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="F554">
-        <v>0.3452380895614624</v>
+        <v>0.3118279576301575</v>
       </c>
     </row>
     <row r="555" spans="1:6">
@@ -11483,16 +11483,16 @@
         <v>0</v>
       </c>
       <c r="C555">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="D555">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="E555">
-        <v>0.2380952388048172</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="F555">
-        <v>0.3452380895614624</v>
+        <v>0.3118279576301575</v>
       </c>
     </row>
     <row r="556" spans="1:6">
@@ -11503,16 +11503,16 @@
         <v>0</v>
       </c>
       <c r="C556">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="D556">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="E556">
-        <v>0.2380952388048172</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="F556">
-        <v>0.3452380895614624</v>
+        <v>0.3118279576301575</v>
       </c>
     </row>
     <row r="557" spans="1:6">
@@ -11523,16 +11523,16 @@
         <v>0</v>
       </c>
       <c r="C557">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="D557">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="E557">
-        <v>0.2380952388048172</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="F557">
-        <v>0.3452380895614624</v>
+        <v>0.3118279576301575</v>
       </c>
     </row>
     <row r="558" spans="1:6">
@@ -11543,16 +11543,16 @@
         <v>0</v>
       </c>
       <c r="C558">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="D558">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="E558">
-        <v>0.2380952388048172</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="F558">
-        <v>0.3452380895614624</v>
+        <v>0.3118279576301575</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -11563,16 +11563,16 @@
         <v>0</v>
       </c>
       <c r="C559">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="D559">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="E559">
-        <v>0.2380952388048172</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="F559">
-        <v>0.3452380895614624</v>
+        <v>0.3118279576301575</v>
       </c>
     </row>
     <row r="560" spans="1:6">
@@ -11583,16 +11583,16 @@
         <v>0</v>
       </c>
       <c r="C560">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="D560">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="E560">
-        <v>0.2380952388048172</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="F560">
-        <v>0.3452380895614624</v>
+        <v>0.3118279576301575</v>
       </c>
     </row>
     <row r="561" spans="1:6">
@@ -11603,16 +11603,16 @@
         <v>0</v>
       </c>
       <c r="C561">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="D561">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="E561">
-        <v>0.2380952388048172</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="F561">
-        <v>0.3452380895614624</v>
+        <v>0.3118279576301575</v>
       </c>
     </row>
     <row r="562" spans="1:6">
@@ -11623,16 +11623,16 @@
         <v>0</v>
       </c>
       <c r="C562">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="D562">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="E562">
-        <v>0.2380952388048172</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="F562">
-        <v>0.3452380895614624</v>
+        <v>0.3118279576301575</v>
       </c>
     </row>
     <row r="563" spans="1:6">
@@ -11643,16 +11643,16 @@
         <v>0</v>
       </c>
       <c r="C563">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="D563">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="E563">
-        <v>0.2380952388048172</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="F563">
-        <v>0.3452380895614624</v>
+        <v>0.3118279576301575</v>
       </c>
     </row>
     <row r="564" spans="1:6">
@@ -11663,16 +11663,16 @@
         <v>0</v>
       </c>
       <c r="C564">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="D564">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="E564">
-        <v>0.2380952388048172</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="F564">
-        <v>0.3452380895614624</v>
+        <v>0.3118279576301575</v>
       </c>
     </row>
     <row r="565" spans="1:6">
@@ -11683,16 +11683,16 @@
         <v>0</v>
       </c>
       <c r="C565">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="D565">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="E565">
-        <v>0.2380952388048172</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="F565">
-        <v>0.3452380895614624</v>
+        <v>0.3118279576301575</v>
       </c>
     </row>
     <row r="566" spans="1:6">
@@ -11703,16 +11703,16 @@
         <v>0</v>
       </c>
       <c r="C566">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="D566">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="E566">
-        <v>0.2380952388048172</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="F566">
-        <v>0.3452380895614624</v>
+        <v>0.3118279576301575</v>
       </c>
     </row>
     <row r="567" spans="1:6">
@@ -11723,16 +11723,16 @@
         <v>0</v>
       </c>
       <c r="C567">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="D567">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="E567">
-        <v>0.2380952388048172</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="F567">
-        <v>0.3452380895614624</v>
+        <v>0.3118279576301575</v>
       </c>
     </row>
     <row r="568" spans="1:6">
@@ -11743,16 +11743,16 @@
         <v>0</v>
       </c>
       <c r="C568">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="D568">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="E568">
-        <v>0.2380952388048172</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="F568">
-        <v>0.3452380895614624</v>
+        <v>0.3118279576301575</v>
       </c>
     </row>
     <row r="569" spans="1:6">
@@ -11763,16 +11763,16 @@
         <v>0</v>
       </c>
       <c r="C569">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="D569">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="E569">
-        <v>0.2380952388048172</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="F569">
-        <v>0.3452380895614624</v>
+        <v>0.3118279576301575</v>
       </c>
     </row>
     <row r="570" spans="1:6">
@@ -11783,16 +11783,16 @@
         <v>0</v>
       </c>
       <c r="C570">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="D570">
-        <v>0.2083333283662796</v>
+        <v>0.1881720423698426</v>
       </c>
       <c r="E570">
-        <v>0.2380952388048172</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="F570">
-        <v>0.3452380895614624</v>
+        <v>0.3118279576301575</v>
       </c>
     </row>
     <row r="571" spans="1:6">
@@ -14623,16 +14623,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C712">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D712">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E712">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F712">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="713" spans="1:6">
@@ -14643,16 +14643,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C713">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D713">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E713">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F713">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="714" spans="1:6">
@@ -14663,16 +14663,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C714">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D714">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E714">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F714">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="715" spans="1:6">
@@ -14683,16 +14683,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C715">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D715">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E715">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F715">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="716" spans="1:6">
@@ -14703,16 +14703,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C716">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D716">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E716">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F716">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="717" spans="1:6">
@@ -14723,16 +14723,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C717">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D717">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E717">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F717">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="718" spans="1:6">
@@ -14743,16 +14743,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C718">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D718">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E718">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F718">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="719" spans="1:6">
@@ -14763,16 +14763,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C719">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D719">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E719">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F719">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="720" spans="1:6">
@@ -14783,16 +14783,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C720">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D720">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E720">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F720">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="721" spans="1:6">
@@ -14803,16 +14803,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C721">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D721">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E721">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F721">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="722" spans="1:6">
@@ -14823,16 +14823,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C722">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D722">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E722">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F722">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="723" spans="1:6">
@@ -14843,16 +14843,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C723">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D723">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E723">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F723">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="724" spans="1:6">
@@ -14863,16 +14863,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C724">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D724">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E724">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F724">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="725" spans="1:6">
@@ -14883,16 +14883,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C725">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D725">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E725">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F725">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="726" spans="1:6">
@@ -14903,16 +14903,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C726">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D726">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E726">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F726">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="727" spans="1:6">
@@ -14923,16 +14923,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C727">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D727">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E727">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F727">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="728" spans="1:6">
@@ -14943,16 +14943,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C728">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D728">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E728">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F728">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="729" spans="1:6">
@@ -14963,16 +14963,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C729">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D729">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E729">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F729">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="730" spans="1:6">
@@ -14983,16 +14983,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C730">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D730">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E730">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F730">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="731" spans="1:6">
@@ -15003,16 +15003,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C731">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D731">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E731">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F731">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="732" spans="1:6">
@@ -15023,16 +15023,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C732">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D732">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E732">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F732">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="733" spans="1:6">
@@ -15043,16 +15043,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C733">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D733">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E733">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F733">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="734" spans="1:6">
@@ -15063,16 +15063,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C734">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D734">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E734">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F734">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="735" spans="1:6">
@@ -15083,16 +15083,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C735">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D735">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E735">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F735">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="736" spans="1:6">
@@ -15103,16 +15103,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C736">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D736">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E736">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F736">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="737" spans="1:6">
@@ -15123,16 +15123,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C737">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D737">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E737">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F737">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="738" spans="1:6">
@@ -15143,16 +15143,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C738">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D738">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E738">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F738">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="739" spans="1:6">
@@ -15163,16 +15163,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C739">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D739">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E739">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F739">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="740" spans="1:6">
@@ -15183,16 +15183,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C740">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D740">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E740">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F740">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="741" spans="1:6">
@@ -15203,16 +15203,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C741">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D741">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E741">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F741">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="742" spans="1:6">
@@ -15223,16 +15223,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C742">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D742">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E742">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F742">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="743" spans="1:6">
@@ -15243,16 +15243,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C743">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D743">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E743">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F743">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="744" spans="1:6">
@@ -15263,16 +15263,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C744">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D744">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E744">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F744">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="745" spans="1:6">
@@ -15283,16 +15283,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C745">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D745">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E745">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F745">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="746" spans="1:6">
@@ -15303,16 +15303,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C746">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D746">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E746">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F746">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="747" spans="1:6">
@@ -15323,16 +15323,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C747">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D747">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E747">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F747">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="748" spans="1:6">
@@ -15343,16 +15343,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C748">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D748">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E748">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F748">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="749" spans="1:6">
@@ -15363,16 +15363,16 @@
         <v>0.2000000029802322</v>
       </c>
       <c r="C749">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="D749">
-        <v>0.1754385977983474</v>
+        <v>0.1515151560306549</v>
       </c>
       <c r="E749">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="F749">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="750" spans="1:6">
@@ -15793,6 +15793,1306 @@
       </c>
       <c r="F770">
         <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6">
+      <c r="A771" s="2">
+        <v>43801</v>
+      </c>
+      <c r="B771">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C771">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D771">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E771">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F771">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6">
+      <c r="A772" s="2">
+        <v>43802</v>
+      </c>
+      <c r="B772">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C772">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D772">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E772">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F772">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6">
+      <c r="A773" s="2">
+        <v>43803</v>
+      </c>
+      <c r="B773">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C773">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D773">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E773">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F773">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6">
+      <c r="A774" s="2">
+        <v>43804</v>
+      </c>
+      <c r="B774">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C774">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D774">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E774">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F774">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6">
+      <c r="A775" s="2">
+        <v>43805</v>
+      </c>
+      <c r="B775">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C775">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D775">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E775">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F775">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6">
+      <c r="A776" s="2">
+        <v>43808</v>
+      </c>
+      <c r="B776">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C776">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D776">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E776">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F776">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6">
+      <c r="A777" s="2">
+        <v>43809</v>
+      </c>
+      <c r="B777">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C777">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D777">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E777">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F777">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6">
+      <c r="A778" s="2">
+        <v>43810</v>
+      </c>
+      <c r="B778">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C778">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D778">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E778">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F778">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6">
+      <c r="A779" s="2">
+        <v>43811</v>
+      </c>
+      <c r="B779">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C779">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D779">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E779">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F779">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6">
+      <c r="A780" s="2">
+        <v>43812</v>
+      </c>
+      <c r="B780">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C780">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D780">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E780">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F780">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6">
+      <c r="A781" s="2">
+        <v>43815</v>
+      </c>
+      <c r="B781">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C781">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D781">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E781">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F781">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6">
+      <c r="A782" s="2">
+        <v>43816</v>
+      </c>
+      <c r="B782">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C782">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D782">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E782">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F782">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6">
+      <c r="A783" s="2">
+        <v>43817</v>
+      </c>
+      <c r="B783">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C783">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D783">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E783">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F783">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6">
+      <c r="A784" s="2">
+        <v>43818</v>
+      </c>
+      <c r="B784">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C784">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D784">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E784">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F784">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6">
+      <c r="A785" s="2">
+        <v>43819</v>
+      </c>
+      <c r="B785">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C785">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D785">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E785">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F785">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6">
+      <c r="A786" s="2">
+        <v>43822</v>
+      </c>
+      <c r="B786">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C786">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D786">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E786">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F786">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6">
+      <c r="A787" s="2">
+        <v>43823</v>
+      </c>
+      <c r="B787">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C787">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D787">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E787">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F787">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6">
+      <c r="A788" s="2">
+        <v>43824</v>
+      </c>
+      <c r="B788">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C788">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D788">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E788">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F788">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6">
+      <c r="A789" s="2">
+        <v>43825</v>
+      </c>
+      <c r="B789">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C789">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D789">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E789">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F789">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6">
+      <c r="A790" s="2">
+        <v>43826</v>
+      </c>
+      <c r="B790">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C790">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D790">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E790">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F790">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6">
+      <c r="A791" s="2">
+        <v>43829</v>
+      </c>
+      <c r="B791">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C791">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D791">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E791">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F791">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6">
+      <c r="A792" s="2">
+        <v>43830</v>
+      </c>
+      <c r="B792">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C792">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="D792">
+        <v>0.1754385977983474</v>
+      </c>
+      <c r="E792">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F792">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6">
+      <c r="A793" s="2">
+        <v>43832</v>
+      </c>
+      <c r="B793">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C793">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D793">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E793">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F793">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6">
+      <c r="A794" s="2">
+        <v>43833</v>
+      </c>
+      <c r="B794">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C794">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D794">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E794">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F794">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6">
+      <c r="A795" s="2">
+        <v>43836</v>
+      </c>
+      <c r="B795">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C795">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D795">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E795">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F795">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6">
+      <c r="A796" s="2">
+        <v>43837</v>
+      </c>
+      <c r="B796">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C796">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D796">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E796">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F796">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6">
+      <c r="A797" s="2">
+        <v>43838</v>
+      </c>
+      <c r="B797">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C797">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D797">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E797">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F797">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6">
+      <c r="A798" s="2">
+        <v>43839</v>
+      </c>
+      <c r="B798">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C798">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D798">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E798">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F798">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6">
+      <c r="A799" s="2">
+        <v>43840</v>
+      </c>
+      <c r="B799">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C799">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D799">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E799">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F799">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6">
+      <c r="A800" s="2">
+        <v>43843</v>
+      </c>
+      <c r="B800">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C800">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D800">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E800">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F800">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6">
+      <c r="A801" s="2">
+        <v>43844</v>
+      </c>
+      <c r="B801">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C801">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D801">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E801">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F801">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6">
+      <c r="A802" s="2">
+        <v>43845</v>
+      </c>
+      <c r="B802">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C802">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D802">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E802">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F802">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6">
+      <c r="A803" s="2">
+        <v>43846</v>
+      </c>
+      <c r="B803">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C803">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D803">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E803">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F803">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6">
+      <c r="A804" s="2">
+        <v>43847</v>
+      </c>
+      <c r="B804">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C804">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D804">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E804">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F804">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6">
+      <c r="A805" s="2">
+        <v>43850</v>
+      </c>
+      <c r="B805">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C805">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D805">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E805">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F805">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6">
+      <c r="A806" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B806">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C806">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D806">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E806">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F806">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6">
+      <c r="A807" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B807">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C807">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D807">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E807">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F807">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6">
+      <c r="A808" s="2">
+        <v>43853</v>
+      </c>
+      <c r="B808">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C808">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D808">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E808">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F808">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6">
+      <c r="A809" s="2">
+        <v>43864</v>
+      </c>
+      <c r="B809">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C809">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D809">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E809">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F809">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6">
+      <c r="A810" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B810">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C810">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D810">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E810">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F810">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6">
+      <c r="A811" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B811">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C811">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D811">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E811">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F811">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6">
+      <c r="A812" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B812">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C812">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D812">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E812">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F812">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6">
+      <c r="A813" s="2">
+        <v>43868</v>
+      </c>
+      <c r="B813">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C813">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D813">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E813">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F813">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6">
+      <c r="A814" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B814">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C814">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D814">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E814">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F814">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6">
+      <c r="A815" s="2">
+        <v>43872</v>
+      </c>
+      <c r="B815">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C815">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D815">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E815">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F815">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6">
+      <c r="A816" s="2">
+        <v>43873</v>
+      </c>
+      <c r="B816">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C816">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D816">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E816">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F816">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6">
+      <c r="A817" s="2">
+        <v>43874</v>
+      </c>
+      <c r="B817">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C817">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D817">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E817">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F817">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6">
+      <c r="A818" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B818">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C818">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D818">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E818">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F818">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6">
+      <c r="A819" s="2">
+        <v>43878</v>
+      </c>
+      <c r="B819">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C819">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D819">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E819">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F819">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6">
+      <c r="A820" s="2">
+        <v>43879</v>
+      </c>
+      <c r="B820">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C820">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D820">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E820">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F820">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6">
+      <c r="A821" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B821">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C821">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D821">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E821">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F821">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6">
+      <c r="A822" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B822">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C822">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D822">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E822">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F822">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6">
+      <c r="A823" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B823">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C823">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D823">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E823">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F823">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6">
+      <c r="A824" s="2">
+        <v>43885</v>
+      </c>
+      <c r="B824">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C824">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D824">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E824">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F824">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6">
+      <c r="A825" s="2">
+        <v>43886</v>
+      </c>
+      <c r="B825">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C825">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D825">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E825">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F825">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6">
+      <c r="A826" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B826">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C826">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D826">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E826">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F826">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6">
+      <c r="A827" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B827">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C827">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D827">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E827">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F827">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6">
+      <c r="A828" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B828">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="C828">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="D828">
+        <v>0.1333333402872086</v>
+      </c>
+      <c r="E828">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="F828">
+        <v>0.2666666805744171</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6">
+      <c r="A829" s="2">
+        <v>43892</v>
+      </c>
+      <c r="B829">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="C829">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="D829">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="E829">
+        <v>0.2571428716182709</v>
+      </c>
+      <c r="F829">
+        <v>0.2571428716182709</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6">
+      <c r="A830" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B830">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="C830">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="D830">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="E830">
+        <v>0.2571428716182709</v>
+      </c>
+      <c r="F830">
+        <v>0.2571428716182709</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6">
+      <c r="A831" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B831">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="C831">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="D831">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="E831">
+        <v>0.2571428716182709</v>
+      </c>
+      <c r="F831">
+        <v>0.2571428716182709</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6">
+      <c r="A832" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B832">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="C832">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="D832">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="E832">
+        <v>0.2571428716182709</v>
+      </c>
+      <c r="F832">
+        <v>0.2571428716182709</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6">
+      <c r="A833" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B833">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="C833">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="D833">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="E833">
+        <v>0.2571428716182709</v>
+      </c>
+      <c r="F833">
+        <v>0.2571428716182709</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6">
+      <c r="A834" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B834">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="C834">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="D834">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="E834">
+        <v>0.2571428716182709</v>
+      </c>
+      <c r="F834">
+        <v>0.2571428716182709</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6">
+      <c r="A835" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B835">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="C835">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="D835">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="E835">
+        <v>0.2571428716182709</v>
+      </c>
+      <c r="F835">
+        <v>0.2571428716182709</v>
       </c>
     </row>
   </sheetData>

--- a/strategy/全球购策略/data/fund_weight.xlsx
+++ b/strategy/全球购策略/data/fund_weight.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -414,9 +414,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F871"/>
+  <dimension ref="A1:F910"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A835" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A869" workbookViewId="0">
+      <selection activeCell="B910" sqref="B910:F910"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -17428,16 +17430,16 @@
         <v>0.20000000298023221</v>
       </c>
       <c r="C851">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="D851">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="E851">
-        <v>0.26666668057441711</v>
+        <v>0.30303031206130981</v>
       </c>
       <c r="F851">
-        <v>0.26666668057441711</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.15">
@@ -17448,16 +17450,16 @@
         <v>0.20000000298023221</v>
       </c>
       <c r="C852">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="D852">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="E852">
-        <v>0.26666668057441711</v>
+        <v>0.30303031206130981</v>
       </c>
       <c r="F852">
-        <v>0.26666668057441711</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="853" spans="1:6" x14ac:dyDescent="0.15">
@@ -17468,16 +17470,16 @@
         <v>0.20000000298023221</v>
       </c>
       <c r="C853">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="D853">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="E853">
-        <v>0.26666668057441711</v>
+        <v>0.30303031206130981</v>
       </c>
       <c r="F853">
-        <v>0.26666668057441711</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.15">
@@ -17488,16 +17490,16 @@
         <v>0.20000000298023221</v>
       </c>
       <c r="C854">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="D854">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="E854">
-        <v>0.26666668057441711</v>
+        <v>0.30303031206130981</v>
       </c>
       <c r="F854">
-        <v>0.26666668057441711</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.15">
@@ -17508,16 +17510,16 @@
         <v>0.20000000298023221</v>
       </c>
       <c r="C855">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="D855">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="E855">
-        <v>0.26666668057441711</v>
+        <v>0.30303031206130981</v>
       </c>
       <c r="F855">
-        <v>0.26666668057441711</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.15">
@@ -17528,16 +17530,16 @@
         <v>0.20000000298023221</v>
       </c>
       <c r="C856">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="D856">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="E856">
-        <v>0.26666668057441711</v>
+        <v>0.30303031206130981</v>
       </c>
       <c r="F856">
-        <v>0.26666668057441711</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.15">
@@ -17548,16 +17550,16 @@
         <v>0.20000000298023221</v>
       </c>
       <c r="C857">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="D857">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="E857">
-        <v>0.26666668057441711</v>
+        <v>0.30303031206130981</v>
       </c>
       <c r="F857">
-        <v>0.26666668057441711</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.15">
@@ -17568,16 +17570,16 @@
         <v>0.20000000298023221</v>
       </c>
       <c r="C858">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="D858">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="E858">
-        <v>0.26666668057441711</v>
+        <v>0.30303031206130981</v>
       </c>
       <c r="F858">
-        <v>0.26666668057441711</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.15">
@@ -17588,16 +17590,16 @@
         <v>0.20000000298023221</v>
       </c>
       <c r="C859">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="D859">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="E859">
-        <v>0.26666668057441711</v>
+        <v>0.30303031206130981</v>
       </c>
       <c r="F859">
-        <v>0.26666668057441711</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.15">
@@ -17608,16 +17610,16 @@
         <v>0.20000000298023221</v>
       </c>
       <c r="C860">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="D860">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="E860">
-        <v>0.26666668057441711</v>
+        <v>0.30303031206130981</v>
       </c>
       <c r="F860">
-        <v>0.26666668057441711</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.15">
@@ -17628,16 +17630,16 @@
         <v>0.20000000298023221</v>
       </c>
       <c r="C861">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="D861">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="E861">
-        <v>0.26666668057441711</v>
+        <v>0.30303031206130981</v>
       </c>
       <c r="F861">
-        <v>0.26666668057441711</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.15">
@@ -17648,16 +17650,16 @@
         <v>0.20000000298023221</v>
       </c>
       <c r="C862">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="D862">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="E862">
-        <v>0.26666668057441711</v>
+        <v>0.30303031206130981</v>
       </c>
       <c r="F862">
-        <v>0.26666668057441711</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.15">
@@ -17668,16 +17670,16 @@
         <v>0.20000000298023221</v>
       </c>
       <c r="C863">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="D863">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="E863">
-        <v>0.26666668057441711</v>
+        <v>0.30303031206130981</v>
       </c>
       <c r="F863">
-        <v>0.26666668057441711</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.15">
@@ -17688,16 +17690,16 @@
         <v>0.20000000298023221</v>
       </c>
       <c r="C864">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="D864">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="E864">
-        <v>0.26666668057441711</v>
+        <v>0.30303031206130981</v>
       </c>
       <c r="F864">
-        <v>0.26666668057441711</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.15">
@@ -17708,16 +17710,16 @@
         <v>0.20000000298023221</v>
       </c>
       <c r="C865">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="D865">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="E865">
-        <v>0.26666668057441711</v>
+        <v>0.30303031206130981</v>
       </c>
       <c r="F865">
-        <v>0.26666668057441711</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.15">
@@ -17728,16 +17730,16 @@
         <v>0.20000000298023221</v>
       </c>
       <c r="C866">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="D866">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="E866">
-        <v>0.26666668057441711</v>
+        <v>0.30303031206130981</v>
       </c>
       <c r="F866">
-        <v>0.26666668057441711</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.15">
@@ -17748,16 +17750,16 @@
         <v>0.20000000298023221</v>
       </c>
       <c r="C867">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="D867">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="E867">
-        <v>0.26666668057441711</v>
+        <v>0.30303031206130981</v>
       </c>
       <c r="F867">
-        <v>0.26666668057441711</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.15">
@@ -17768,16 +17770,16 @@
         <v>0.20000000298023221</v>
       </c>
       <c r="C868">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="D868">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="E868">
-        <v>0.26666668057441711</v>
+        <v>0.30303031206130981</v>
       </c>
       <c r="F868">
-        <v>0.26666668057441711</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.15">
@@ -17788,16 +17790,16 @@
         <v>0.20000000298023221</v>
       </c>
       <c r="C869">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="D869">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="E869">
-        <v>0.26666668057441711</v>
+        <v>0.30303031206130981</v>
       </c>
       <c r="F869">
-        <v>0.26666668057441711</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.15">
@@ -17808,16 +17810,16 @@
         <v>0.20000000298023221</v>
       </c>
       <c r="C870">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="D870">
-        <v>0.13333334028720861</v>
+        <v>0.15151515603065491</v>
       </c>
       <c r="E870">
-        <v>0.26666668057441711</v>
+        <v>0.30303031206130981</v>
       </c>
       <c r="F870">
-        <v>0.26666668057441711</v>
+        <v>0.1939393877983093</v>
       </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.15">
@@ -17828,16 +17830,796 @@
         <v>0.20000000298023221</v>
       </c>
       <c r="C871">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D871">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E871">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F871">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A872" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B872">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C872">
         <v>0.13333334028720861</v>
       </c>
-      <c r="D871">
+      <c r="D872">
         <v>0.13333334028720861</v>
       </c>
-      <c r="E871">
+      <c r="E872">
         <v>0.26666668057441711</v>
       </c>
-      <c r="F871">
+      <c r="F872">
         <v>0.26666668057441711</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A873" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B873">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C873">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="D873">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="E873">
+        <v>0.26666668057441711</v>
+      </c>
+      <c r="F873">
+        <v>0.26666668057441711</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A874" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B874">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C874">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="D874">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="E874">
+        <v>0.26666668057441711</v>
+      </c>
+      <c r="F874">
+        <v>0.26666668057441711</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A875" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B875">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C875">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="D875">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="E875">
+        <v>0.26666668057441711</v>
+      </c>
+      <c r="F875">
+        <v>0.26666668057441711</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A876" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B876">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C876">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="D876">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="E876">
+        <v>0.26666668057441711</v>
+      </c>
+      <c r="F876">
+        <v>0.26666668057441711</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A877" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B877">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C877">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="D877">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="E877">
+        <v>0.26666668057441711</v>
+      </c>
+      <c r="F877">
+        <v>0.26666668057441711</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A878" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B878">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C878">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="D878">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="E878">
+        <v>0.26666668057441711</v>
+      </c>
+      <c r="F878">
+        <v>0.26666668057441711</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A879" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B879">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C879">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="D879">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="E879">
+        <v>0.26666668057441711</v>
+      </c>
+      <c r="F879">
+        <v>0.26666668057441711</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A880" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B880">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C880">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="D880">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="E880">
+        <v>0.26666668057441711</v>
+      </c>
+      <c r="F880">
+        <v>0.26666668057441711</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A881" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B881">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C881">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="D881">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="E881">
+        <v>0.26666668057441711</v>
+      </c>
+      <c r="F881">
+        <v>0.26666668057441711</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A882" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B882">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C882">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="D882">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="E882">
+        <v>0.26666668057441711</v>
+      </c>
+      <c r="F882">
+        <v>0.26666668057441711</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A883" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B883">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C883">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="D883">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="E883">
+        <v>0.26666668057441711</v>
+      </c>
+      <c r="F883">
+        <v>0.26666668057441711</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A884" s="2">
+        <v>43973</v>
+      </c>
+      <c r="B884">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C884">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="D884">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="E884">
+        <v>0.26666668057441711</v>
+      </c>
+      <c r="F884">
+        <v>0.26666668057441711</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A885" s="2">
+        <v>43976</v>
+      </c>
+      <c r="B885">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C885">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="D885">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="E885">
+        <v>0.26666668057441711</v>
+      </c>
+      <c r="F885">
+        <v>0.26666668057441711</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A886" s="2">
+        <v>43977</v>
+      </c>
+      <c r="B886">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C886">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="D886">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="E886">
+        <v>0.26666668057441711</v>
+      </c>
+      <c r="F886">
+        <v>0.26666668057441711</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A887" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B887">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C887">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="D887">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="E887">
+        <v>0.26666668057441711</v>
+      </c>
+      <c r="F887">
+        <v>0.26666668057441711</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A888" s="2">
+        <v>43979</v>
+      </c>
+      <c r="B888">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C888">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="D888">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="E888">
+        <v>0.26666668057441711</v>
+      </c>
+      <c r="F888">
+        <v>0.26666668057441711</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A889" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B889">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C889">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="D889">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="E889">
+        <v>0.26666668057441711</v>
+      </c>
+      <c r="F889">
+        <v>0.26666668057441711</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A890" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B890">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C890">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="D890">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="E890">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="F890">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A891" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B891">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C891">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="D891">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="E891">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="F891">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A892" s="2">
+        <v>43985</v>
+      </c>
+      <c r="B892">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C892">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="D892">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="E892">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="F892">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A893" s="2">
+        <v>43986</v>
+      </c>
+      <c r="B893">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C893">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="D893">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="E893">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="F893">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A894" s="2">
+        <v>43987</v>
+      </c>
+      <c r="B894">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C894">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="D894">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="E894">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="F894">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A895" s="2">
+        <v>43990</v>
+      </c>
+      <c r="B895">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C895">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="D895">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="E895">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="F895">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A896" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B896">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C896">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="D896">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="E896">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="F896">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A897" s="2">
+        <v>43992</v>
+      </c>
+      <c r="B897">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C897">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="D897">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="E897">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="F897">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A898" s="2">
+        <v>43993</v>
+      </c>
+      <c r="B898">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C898">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="D898">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="E898">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="F898">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="899" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A899" s="2">
+        <v>43994</v>
+      </c>
+      <c r="B899">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C899">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="D899">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="E899">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="F899">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A900" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B900">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C900">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="D900">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="E900">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="F900">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A901" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B901">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C901">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="D901">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="E901">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="F901">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A902" s="2">
+        <v>43999</v>
+      </c>
+      <c r="B902">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C902">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="D902">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="E902">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="F902">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A903" s="2">
+        <v>44000</v>
+      </c>
+      <c r="B903">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C903">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="D903">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="E903">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="F903">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A904" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B904">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C904">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="D904">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="E904">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="F904">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A905" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B905">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C905">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="D905">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="E905">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="F905">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A906" s="2">
+        <v>44005</v>
+      </c>
+      <c r="B906">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C906">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="D906">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="E906">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="F906">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A907" s="2">
+        <v>44006</v>
+      </c>
+      <c r="B907">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C907">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="D907">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="E907">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="F907">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A908" s="2">
+        <v>44011</v>
+      </c>
+      <c r="B908">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C908">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="D908">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="E908">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="F908">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A909" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B909">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C909">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="D909">
+        <v>0.1122807040810585</v>
+      </c>
+      <c r="E909">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="F909">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A910" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B910">
+        <v>0.10000000149011611</v>
+      </c>
+      <c r="C910">
+        <v>0.15000000596046451</v>
+      </c>
+      <c r="D910">
+        <v>0.15000000596046451</v>
+      </c>
+      <c r="E910">
+        <v>0.30000001192092901</v>
+      </c>
+      <c r="F910">
+        <v>0.30000001192092901</v>
       </c>
     </row>
   </sheetData>
